--- a/stockwellExample/RawInputData/ComponentFailureData.xlsx
+++ b/stockwellExample/RawInputData/ComponentFailureData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttcd\Documents\MATLAB\PetriNetSimulate\stockwellExample\RawInputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2A74CD-3939-4A47-8B75-76D5AF6654E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068A1C8E-E626-49B0-87D7-FE20850CC8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -316,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,16 +722,16 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="67.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="67.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
@@ -784,10 +784,14 @@
         <v>15</v>
       </c>
       <c r="D2" s="7"/>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
       <c r="G2" s="8">
         <v>0</v>
       </c>
       <c r="H2" s="11">
+        <f>1/F2</f>
         <v>10</v>
       </c>
       <c r="I2" s="8"/>
@@ -807,10 +811,14 @@
         <v>16</v>
       </c>
       <c r="D3" s="7"/>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
       <c r="G3" s="8">
         <v>0</v>
       </c>
       <c r="H3" s="11">
+        <f t="shared" ref="H3:H23" si="0">1/F3</f>
         <v>10</v>
       </c>
       <c r="I3" s="8"/>
@@ -830,11 +838,15 @@
         <v>17</v>
       </c>
       <c r="D4" s="7"/>
+      <c r="F4">
+        <v>1E-3</v>
+      </c>
       <c r="G4" s="8">
         <v>0</v>
       </c>
       <c r="H4" s="11">
-        <v>1.1496895838123706</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -853,11 +865,15 @@
         <v>18</v>
       </c>
       <c r="D5" s="7"/>
+      <c r="F5">
+        <v>0.86980000000000002</v>
+      </c>
       <c r="G5" s="8">
         <v>0</v>
       </c>
       <c r="H5" s="11">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>1.1496895838123706</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -876,10 +892,14 @@
         <v>19</v>
       </c>
       <c r="D6" s="7"/>
+      <c r="F6">
+        <v>1E-3</v>
+      </c>
       <c r="G6" s="8">
         <v>0</v>
       </c>
       <c r="H6" s="11">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I6" s="8"/>
@@ -893,10 +913,14 @@
         <v>20</v>
       </c>
       <c r="D7" s="7"/>
+      <c r="F7">
+        <v>1E-3</v>
+      </c>
       <c r="G7" s="8">
         <v>0</v>
       </c>
       <c r="H7" s="11">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I7" s="8"/>
@@ -910,10 +934,14 @@
         <v>21</v>
       </c>
       <c r="D8" s="7"/>
+      <c r="F8">
+        <v>0.1</v>
+      </c>
       <c r="G8" s="8">
         <v>0</v>
       </c>
       <c r="H8" s="11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I8" s="8"/>
@@ -927,10 +955,14 @@
         <v>22</v>
       </c>
       <c r="D9" s="7"/>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
       <c r="G9" s="8">
         <v>0</v>
       </c>
       <c r="H9" s="11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I9" s="8"/>
@@ -944,10 +976,14 @@
         <v>23</v>
       </c>
       <c r="D10" s="7"/>
+      <c r="F10">
+        <v>2.2999999999999998E-4</v>
+      </c>
       <c r="G10" s="8">
         <v>0</v>
       </c>
       <c r="H10" s="11">
+        <f t="shared" si="0"/>
         <v>4347.826086956522</v>
       </c>
       <c r="I10" s="8"/>
@@ -961,10 +997,14 @@
         <v>24</v>
       </c>
       <c r="D11" s="7"/>
+      <c r="F11">
+        <v>2.2999999999999998E-4</v>
+      </c>
       <c r="G11" s="8">
         <v>0</v>
       </c>
       <c r="H11" s="11">
+        <f t="shared" si="0"/>
         <v>4347.826086956522</v>
       </c>
       <c r="I11" s="8"/>
@@ -978,10 +1018,14 @@
         <v>25</v>
       </c>
       <c r="D12" s="7"/>
+      <c r="F12">
+        <v>1E-3</v>
+      </c>
       <c r="G12" s="8">
         <v>0</v>
       </c>
       <c r="H12" s="11">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I12" s="8"/>
@@ -995,10 +1039,14 @@
         <v>26</v>
       </c>
       <c r="D13" s="7"/>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
       <c r="G13" s="8">
         <v>0</v>
       </c>
       <c r="H13" s="11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I13" s="8"/>
@@ -1012,10 +1060,14 @@
         <v>27</v>
       </c>
       <c r="D14" s="7"/>
+      <c r="F14">
+        <v>1E-3</v>
+      </c>
       <c r="G14" s="8">
         <v>0</v>
       </c>
       <c r="H14" s="11">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I14" s="8"/>
@@ -1029,10 +1081,14 @@
         <v>28</v>
       </c>
       <c r="D15" s="7"/>
+      <c r="F15">
+        <v>0.01</v>
+      </c>
       <c r="G15" s="8">
         <v>0</v>
       </c>
       <c r="H15" s="11">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I15" s="8"/>
@@ -1046,10 +1102,14 @@
         <v>29</v>
       </c>
       <c r="D16" s="7"/>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
       <c r="G16" s="8">
         <v>0</v>
       </c>
       <c r="H16" s="11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I16" s="8"/>
@@ -1063,10 +1123,14 @@
         <v>30</v>
       </c>
       <c r="D17" s="7"/>
+      <c r="F17">
+        <v>1E-4</v>
+      </c>
       <c r="G17" s="8">
         <v>0</v>
       </c>
       <c r="H17" s="11">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="I17" s="8"/>
@@ -1080,10 +1144,14 @@
         <v>31</v>
       </c>
       <c r="D18" s="7"/>
+      <c r="F18">
+        <v>0.03</v>
+      </c>
       <c r="G18" s="8">
         <v>0</v>
       </c>
       <c r="H18" s="11">
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I18" s="8"/>
@@ -1097,10 +1165,14 @@
         <v>32</v>
       </c>
       <c r="D19" s="7"/>
+      <c r="F19">
+        <v>0.03</v>
+      </c>
       <c r="G19" s="8">
         <v>0</v>
       </c>
       <c r="H19" s="11">
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I19" s="8"/>
@@ -1114,10 +1186,14 @@
         <v>33</v>
       </c>
       <c r="D20" s="7"/>
+      <c r="F20">
+        <v>0.01</v>
+      </c>
       <c r="G20" s="8">
         <v>0</v>
       </c>
       <c r="H20" s="11">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I20" s="8"/>
@@ -1131,10 +1207,14 @@
         <v>34</v>
       </c>
       <c r="D21" s="7"/>
+      <c r="F21">
+        <v>0.01</v>
+      </c>
       <c r="G21" s="8">
         <v>0</v>
       </c>
       <c r="H21" s="11">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I21" s="8"/>
@@ -1148,10 +1228,14 @@
         <v>35</v>
       </c>
       <c r="D22" s="7"/>
+      <c r="F22">
+        <v>0.01</v>
+      </c>
       <c r="G22" s="8">
         <v>0</v>
       </c>
       <c r="H22" s="11">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I22" s="8"/>
@@ -1165,10 +1249,14 @@
         <v>36</v>
       </c>
       <c r="D23" s="7"/>
+      <c r="F23">
+        <v>0.1</v>
+      </c>
       <c r="G23" s="8">
         <v>0</v>
       </c>
       <c r="H23" s="11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I23" s="8"/>
